--- a/outputs-r202/test-g__Catenibacterium.xlsx
+++ b/outputs-r202/test-g__Catenibacterium.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Row</t>
   </si>
@@ -70,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -80,14 +80,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,130 +115,130 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.20710794165379343</v>
+        <v>0.059839002434361369</v>
       </c>
       <c r="C2">
-        <v>0.13423568945604539</v>
+        <v>2.2333734350457861e-14</v>
       </c>
       <c r="D2">
-        <v>0.13423568945604542</v>
+        <v>0.87573678704531255</v>
       </c>
       <c r="E2">
-        <v>0.13423568945604539</v>
+        <v>2.2333734350457861e-14</v>
       </c>
       <c r="F2">
-        <v>0.13423568945604539</v>
+        <v>2.2333734350457861e-14</v>
       </c>
       <c r="G2">
-        <v>0.25594930052202491</v>
+        <v>0.064424210520259137</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.012931049380896115</v>
+        <v>0.015432587044215927</v>
       </c>
       <c r="C3">
-        <v>2.2211761154385925e-14</v>
+        <v>2.2217016163226277e-14</v>
       </c>
       <c r="D3">
-        <v>0.91542502724640673</v>
+        <v>0.91315788260632313</v>
       </c>
       <c r="E3">
-        <v>2.2211761154385925e-14</v>
+        <v>2.2217016163226277e-14</v>
       </c>
       <c r="F3">
-        <v>2.2211761154385925e-14</v>
+        <v>2.2217016163226277e-14</v>
       </c>
       <c r="G3">
-        <v>0.071643923372630577</v>
+        <v>0.071409530349394221</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2176504083119391</v>
+        <v>0.052237770938523144</v>
       </c>
       <c r="C4">
-        <v>0.13202829143036188</v>
+        <v>2.2302670312498967e-14</v>
       </c>
       <c r="D4">
-        <v>0.13202829143036188</v>
+        <v>0.88086910839284294</v>
       </c>
       <c r="E4">
-        <v>0.13202829143036188</v>
+        <v>2.2302670312498967e-14</v>
       </c>
       <c r="F4">
-        <v>0.13202829143036188</v>
+        <v>2.2302670312498967e-14</v>
       </c>
       <c r="G4">
-        <v>0.25423642596661339</v>
+        <v>0.066893120668566938</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.015113702392004399</v>
+        <v>0.023633907219590574</v>
       </c>
       <c r="C5">
-        <v>2.2215989464209837e-14</v>
+        <v>2.2241396723014676e-14</v>
       </c>
       <c r="D5">
-        <v>0.91299570865661805</v>
+        <v>0.90555705795570318</v>
       </c>
       <c r="E5">
-        <v>2.2215989464209837e-14</v>
+        <v>2.2241396723014676e-14</v>
       </c>
       <c r="F5">
-        <v>2.2215989464209837e-14</v>
+        <v>2.2241396723014676e-14</v>
       </c>
       <c r="G5">
-        <v>0.071890588951310813</v>
+        <v>0.0708090348246396</v>
       </c>
       <c r="H5">
         <v>3</v>
